--- a/DRL_UTE/Doc/FileUpload/SinhVien_HoatDong.xlsx
+++ b/DRL_UTE/Doc/FileUpload/SinhVien_HoatDong.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\EXCEL_AVT_MẪU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333B9039-DE65-4C9D-B141-A1961005044F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7ECF5D-87BD-4B9B-9B5F-5972DC246FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E368D24D-09EA-4FC1-9DEB-45ACD69ABB25}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E368D24D-09EA-4FC1-9DEB-45ACD69ABB25}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,10 +43,10 @@
     <t>tenSV</t>
   </si>
   <si>
-    <t>1811505310330</t>
+    <t>maLop</t>
   </si>
   <si>
-    <t>Nguyễn Thành Nhơn</t>
+    <t>1811505310309</t>
   </si>
 </sst>
 </file>
@@ -409,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9EE2179-552C-4056-AE7B-0229E2487862}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -421,7 +421,7 @@
     <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -431,15 +431,15 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
         <v>4</v>
       </c>
     </row>
